--- a/Team-Data/2010-11/3-15-2010-11.xlsx
+++ b/Team-Data/2010-11/3-15-2010-11.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -684,10 +751,10 @@
         <v>36.3</v>
       </c>
       <c r="J2" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L2" t="n">
         <v>6.4</v>
@@ -696,31 +763,31 @@
         <v>18.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O2" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="P2" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="R2" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S2" t="n">
         <v>30.3</v>
       </c>
       <c r="T2" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V2" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W2" t="n">
         <v>6.1</v>
@@ -732,22 +799,22 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
@@ -765,10 +832,10 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL2" t="n">
         <v>14</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>13</v>
       </c>
       <c r="AM2" t="n">
         <v>13</v>
@@ -780,22 +847,22 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>12</v>
@@ -819,7 +886,7 @@
         <v>26</v>
       </c>
       <c r="BC2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.73</v>
+        <v>0.723</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J3" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="K3" t="n">
         <v>0.489</v>
@@ -878,7 +945,7 @@
         <v>14.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O3" t="n">
         <v>17.5</v>
@@ -887,13 +954,13 @@
         <v>22.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.764</v>
       </c>
       <c r="R3" t="n">
         <v>8</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
         <v>39.1</v>
@@ -902,7 +969,7 @@
         <v>24.1</v>
       </c>
       <c r="V3" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -911,7 +978,7 @@
         <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
         <v>20.9</v>
@@ -920,28 +987,28 @@
         <v>20.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF3" t="n">
         <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM3" t="n">
         <v>28</v>
@@ -974,34 +1041,34 @@
         <v>12</v>
       </c>
       <c r="AT3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU3" t="n">
         <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>21</v>
       </c>
       <c r="BB3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.431</v>
+        <v>0.424</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J4" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.447</v>
@@ -1057,34 +1124,34 @@
         <v>5.1</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N4" t="n">
         <v>0.331</v>
       </c>
       <c r="O4" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P4" t="n">
         <v>25.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.751</v>
+        <v>0.754</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S4" t="n">
         <v>30.4</v>
       </c>
       <c r="T4" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U4" t="n">
         <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W4" t="n">
         <v>6.5</v>
@@ -1096,28 +1163,28 @@
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>16</v>
@@ -1135,7 +1202,7 @@
         <v>27</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN4" t="n">
         <v>28</v>
@@ -1147,16 +1214,16 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>15</v>
       </c>
       <c r="AS4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT4" t="n">
         <v>16</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>15</v>
       </c>
       <c r="AU4" t="n">
         <v>18</v>
@@ -1174,10 +1241,10 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -1215,19 +1282,19 @@
         <v>65</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>0.738</v>
+        <v>0.723</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J5" t="n">
         <v>80.59999999999999</v>
@@ -1236,13 +1303,13 @@
         <v>0.459</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O5" t="n">
         <v>17.8</v>
@@ -1254,10 +1321,10 @@
         <v>0.736</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T5" t="n">
         <v>44.3</v>
@@ -1269,7 +1336,7 @@
         <v>14.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X5" t="n">
         <v>5.8</v>
@@ -1278,7 +1345,7 @@
         <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AA5" t="n">
         <v>20.2</v>
@@ -1287,13 +1354,13 @@
         <v>97.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF5" t="n">
         <v>2</v>
@@ -1302,34 +1369,34 @@
         <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>18</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="n">
         <v>19</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>17</v>
       </c>
       <c r="AN5" t="n">
         <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>7</v>
@@ -1341,28 +1408,28 @@
         <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA5" t="n">
         <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>53</v>
       </c>
       <c r="G6" t="n">
-        <v>0.172</v>
+        <v>0.185</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
@@ -1421,22 +1488,22 @@
         <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
         <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R6" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S6" t="n">
         <v>29.7</v>
@@ -1463,16 +1530,16 @@
         <v>19.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB6" t="n">
         <v>95.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-10.6</v>
+        <v>-10.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>30</v>
@@ -1490,7 +1557,7 @@
         <v>28</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1502,10 +1569,10 @@
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>10</v>
@@ -1526,13 +1593,13 @@
         <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW6" t="n">
         <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -1579,13 +1646,13 @@
         <v>66</v>
       </c>
       <c r="E7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.697</v>
+        <v>0.712</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
@@ -1594,46 +1661,46 @@
         <v>37.4</v>
       </c>
       <c r="J7" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M7" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O7" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P7" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R7" t="n">
         <v>9.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U7" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V7" t="n">
         <v>13.6</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X7" t="n">
         <v>4.3</v>
@@ -1651,25 +1718,25 @@
         <v>100.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF7" t="n">
         <v>4</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="n">
         <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
@@ -1684,37 +1751,37 @@
         <v>6</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR7" t="n">
         <v>29</v>
       </c>
       <c r="AS7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
       </c>
       <c r="AU7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>26</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
@@ -1723,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
         <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.591</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1779,7 +1846,7 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L8" t="n">
         <v>8.1</v>
@@ -1788,16 +1855,16 @@
         <v>20.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.391</v>
+        <v>0.389</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R8" t="n">
         <v>9.5</v>
@@ -1812,7 +1879,7 @@
         <v>21.9</v>
       </c>
       <c r="V8" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W8" t="n">
         <v>7.2</v>
@@ -1824,19 +1891,19 @@
         <v>5.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
         <v>107.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1887,22 +1954,22 @@
         <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV8" t="n">
         <v>15</v>
       </c>
       <c r="AW8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
         <v>23</v>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
@@ -1958,16 +2025,16 @@
         <v>36.8</v>
       </c>
       <c r="J9" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K9" t="n">
         <v>0.452</v>
       </c>
       <c r="L9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N9" t="n">
         <v>0.381</v>
@@ -1976,10 +2043,10 @@
         <v>16.5</v>
       </c>
       <c r="P9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.736</v>
+        <v>0.732</v>
       </c>
       <c r="R9" t="n">
         <v>11.4</v>
@@ -1994,7 +2061,7 @@
         <v>20.5</v>
       </c>
       <c r="V9" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
@@ -2012,19 +2079,19 @@
         <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC9" t="n">
         <v>-4.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
         <v>24</v>
@@ -2054,28 +2121,28 @@
         <v>28</v>
       </c>
       <c r="AP9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>28</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
         <v>30</v>
       </c>
       <c r="AU9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2084,7 +2151,7 @@
         <v>14</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
         <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>0.439</v>
+        <v>0.448</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="J10" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L10" t="n">
         <v>8.4</v>
@@ -2155,25 +2222,25 @@
         <v>0.394</v>
       </c>
       <c r="O10" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R10" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S10" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T10" t="n">
         <v>40.1</v>
       </c>
       <c r="U10" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V10" t="n">
         <v>14.9</v>
@@ -2185,22 +2252,22 @@
         <v>4.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA10" t="n">
         <v>18.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -2221,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
@@ -2236,13 +2303,13 @@
         <v>30</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ10" t="n">
         <v>19</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>28</v>
@@ -2263,10 +2330,10 @@
         <v>14</v>
       </c>
       <c r="AY10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
         <v>34</v>
       </c>
       <c r="F11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="n">
-        <v>0.515</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I11" t="n">
         <v>38.6</v>
       </c>
       <c r="J11" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.455</v>
@@ -2331,34 +2398,34 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N11" t="n">
         <v>0.365</v>
       </c>
       <c r="O11" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="P11" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="R11" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S11" t="n">
         <v>30.8</v>
       </c>
       <c r="T11" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U11" t="n">
         <v>23.5</v>
       </c>
       <c r="V11" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2370,28 +2437,28 @@
         <v>5.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.3</v>
+        <v>105.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
         <v>8</v>
@@ -2406,7 +2473,7 @@
         <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>4</v>
@@ -2418,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="AP11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2430,13 +2497,13 @@
         <v>13</v>
       </c>
       <c r="AT11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -2489,22 +2556,22 @@
         <v>66</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.439</v>
+        <v>0.424</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J12" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2513,7 +2580,7 @@
         <v>7.3</v>
       </c>
       <c r="M12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="N12" t="n">
         <v>0.356</v>
@@ -2525,22 +2592,22 @@
         <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.1</v>
@@ -2552,37 +2619,37 @@
         <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2594,7 +2661,7 @@
         <v>8</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>7</v>
@@ -2609,10 +2676,10 @@
         <v>13</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>29</v>
@@ -2621,25 +2688,25 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>0.388</v>
+        <v>0.382</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J13" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L13" t="n">
         <v>6.3</v>
@@ -2698,7 +2765,7 @@
         <v>18.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O13" t="n">
         <v>19.2</v>
@@ -2707,19 +2774,19 @@
         <v>27.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.708</v>
+        <v>0.707</v>
       </c>
       <c r="R13" t="n">
         <v>11.8</v>
       </c>
       <c r="S13" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T13" t="n">
         <v>42.1</v>
       </c>
       <c r="U13" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V13" t="n">
         <v>16.2</v>
@@ -2728,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y13" t="n">
         <v>4.7</v>
@@ -2740,10 +2807,10 @@
         <v>22.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="AD13" t="n">
         <v>2</v>
@@ -2776,7 +2843,7 @@
         <v>11</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
         <v>8</v>
@@ -2788,10 +2855,10 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT13" t="n">
         <v>12</v>
@@ -2812,13 +2879,13 @@
         <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -2850,40 +2917,40 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.701</v>
+        <v>0.706</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L14" t="n">
         <v>6.4</v>
       </c>
       <c r="M14" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O14" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P14" t="n">
         <v>23.9</v>
@@ -2916,13 +2983,13 @@
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="AC14" t="n">
         <v>6.5</v>
@@ -2931,13 +2998,13 @@
         <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>28</v>
@@ -2946,37 +3013,37 @@
         <v>9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
         <v>9</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
         <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT14" t="n">
         <v>3</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>12</v>
@@ -3003,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" t="n">
         <v>37</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>0.552</v>
+        <v>0.544</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
@@ -3050,7 +3117,7 @@
         <v>38.9</v>
       </c>
       <c r="J15" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.467</v>
@@ -3059,22 +3126,22 @@
         <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O15" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
         <v>24.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
         <v>29.1</v>
@@ -3083,7 +3150,7 @@
         <v>40.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V15" t="n">
         <v>14</v>
@@ -3092,13 +3159,13 @@
         <v>9.4</v>
       </c>
       <c r="X15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
         <v>6.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
         <v>21.5</v>
@@ -3107,7 +3174,7 @@
         <v>100</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD15" t="n">
         <v>2</v>
@@ -3116,7 +3183,7 @@
         <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
@@ -3131,7 +3198,7 @@
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3146,46 +3213,46 @@
         <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>30</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J16" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L16" t="n">
         <v>6.6</v>
@@ -3244,70 +3311,70 @@
         <v>17.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O16" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="P16" t="n">
         <v>27.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R16" t="n">
         <v>9.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V16" t="n">
         <v>13.7</v>
       </c>
       <c r="W16" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X16" t="n">
         <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Z16" t="n">
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG16" t="n">
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3319,10 +3386,10 @@
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3331,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR16" t="n">
         <v>27</v>
@@ -3340,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV16" t="n">
         <v>10</v>
@@ -3352,16 +3419,16 @@
         <v>23</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>1</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -3414,67 +3481,67 @@
         <v>33.9</v>
       </c>
       <c r="J17" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K17" t="n">
         <v>0.425</v>
       </c>
       <c r="L17" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M17" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.747</v>
+        <v>0.744</v>
       </c>
       <c r="R17" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S17" t="n">
-        <v>30.3</v>
+        <v>30.6</v>
       </c>
       <c r="T17" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U17" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="V17" t="n">
         <v>13.6</v>
       </c>
       <c r="W17" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
         <v>4.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.4</v>
+        <v>-1</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>22</v>
@@ -3486,7 +3553,7 @@
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>30</v>
@@ -3501,7 +3568,7 @@
         <v>20</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN17" t="n">
         <v>24</v>
@@ -3510,7 +3577,7 @@
         <v>25</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ17" t="n">
         <v>24</v>
@@ -3519,37 +3586,37 @@
         <v>14</v>
       </c>
       <c r="AS17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU17" t="n">
         <v>30</v>
       </c>
       <c r="AV17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>13</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
         <v>30</v>
       </c>
       <c r="BC17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" t="n">
-        <v>0.254</v>
+        <v>0.25</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J18" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
@@ -3608,13 +3675,13 @@
         <v>19.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O18" t="n">
         <v>19</v>
       </c>
       <c r="P18" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.768</v>
@@ -3623,37 +3690,37 @@
         <v>13.8</v>
       </c>
       <c r="S18" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T18" t="n">
         <v>45.5</v>
       </c>
       <c r="U18" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="W18" t="n">
         <v>7.2</v>
       </c>
       <c r="X18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y18" t="n">
         <v>5.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AA18" t="n">
         <v>21.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5.3</v>
+        <v>-5.2</v>
       </c>
       <c r="AD18" t="n">
         <v>2</v>
@@ -3671,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3686,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO18" t="n">
         <v>9</v>
@@ -3701,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -3713,22 +3780,22 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
         <v>15</v>
       </c>
       <c r="BB18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
         <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>0.328</v>
+        <v>0.338</v>
       </c>
       <c r="H19" t="n">
         <v>48.9</v>
       </c>
       <c r="I19" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J19" t="n">
         <v>79.90000000000001</v>
@@ -3790,7 +3857,7 @@
         <v>15.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O19" t="n">
         <v>18.1</v>
@@ -3811,7 +3878,7 @@
         <v>41.5</v>
       </c>
       <c r="U19" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V19" t="n">
         <v>14.4</v>
@@ -3823,22 +3890,22 @@
         <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA19" t="n">
         <v>20.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
@@ -3859,7 +3926,7 @@
         <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>21</v>
@@ -3868,10 +3935,10 @@
         <v>20</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
         <v>20</v>
@@ -3886,10 +3953,10 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV19" t="n">
         <v>19</v>
@@ -3904,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="AZ19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" t="n">
         <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3963,61 +4030,61 @@
         <v>78</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M20" t="n">
         <v>15.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O20" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P20" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q20" t="n">
         <v>0.768</v>
       </c>
       <c r="R20" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T20" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y20" t="n">
         <v>4.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB20" t="n">
         <v>94.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4041,25 +4108,25 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>22</v>
       </c>
       <c r="AM20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>24</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>25</v>
@@ -4071,10 +4138,10 @@
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
         <v>9</v>
@@ -4083,7 +4150,7 @@
         <v>21</v>
       </c>
       <c r="AY20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ20" t="n">
         <v>17</v>
@@ -4095,7 +4162,7 @@
         <v>27</v>
       </c>
       <c r="BC20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -4127,13 +4194,13 @@
         <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="n">
-        <v>0.508</v>
+        <v>0.523</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
@@ -4145,76 +4212,76 @@
         <v>83.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L21" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.369</v>
+        <v>0.366</v>
       </c>
       <c r="O21" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="P21" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R21" t="n">
         <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U21" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V21" t="n">
         <v>14.2</v>
       </c>
       <c r="W21" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X21" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y21" t="n">
         <v>4.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA21" t="n">
         <v>20.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.7</v>
+        <v>106.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>6</v>
@@ -4232,13 +4299,13 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>4</v>
       </c>
       <c r="AP21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
@@ -4247,7 +4314,7 @@
         <v>22</v>
       </c>
       <c r="AS21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AT21" t="n">
         <v>20</v>
@@ -4256,19 +4323,19 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F22" t="n">
         <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>0.646</v>
+        <v>0.652</v>
       </c>
       <c r="H22" t="n">
         <v>48.8</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J22" t="n">
         <v>80.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L22" t="n">
         <v>5.9</v>
@@ -4336,16 +4403,16 @@
         <v>16.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O22" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.827</v>
+        <v>0.826</v>
       </c>
       <c r="R22" t="n">
         <v>10.8</v>
@@ -4366,25 +4433,25 @@
         <v>7.9</v>
       </c>
       <c r="X22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y22" t="n">
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB22" t="n">
         <v>104.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>7</v>
@@ -4399,13 +4466,13 @@
         <v>2</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL22" t="n">
         <v>19</v>
@@ -4414,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4426,34 +4493,34 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS22" t="n">
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
         <v>11</v>
       </c>
       <c r="AW22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
         <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" t="n">
         <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>0.612</v>
+        <v>0.618</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L23" t="n">
         <v>9.4</v>
@@ -4518,31 +4585,31 @@
         <v>25.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O23" t="n">
         <v>17.7</v>
       </c>
       <c r="P23" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.695</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R23" t="n">
         <v>10.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
         <v>20</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>6.3</v>
@@ -4557,13 +4624,13 @@
         <v>20.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AD23" t="n">
         <v>2</v>
@@ -4581,13 +4648,13 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4611,7 +4678,7 @@
         <v>21</v>
       </c>
       <c r="AS23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>6</v>
@@ -4620,7 +4687,7 @@
         <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
@@ -4638,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" t="n">
         <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="n">
-        <v>0.515</v>
+        <v>0.507</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
@@ -4700,13 +4767,13 @@
         <v>15.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O24" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P24" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q24" t="n">
         <v>0.771</v>
@@ -4724,10 +4791,10 @@
         <v>22.4</v>
       </c>
       <c r="V24" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W24" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
         <v>4.2</v>
@@ -4742,13 +4809,13 @@
         <v>19.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4757,7 +4824,7 @@
         <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
         <v>4</v>
@@ -4766,25 +4833,25 @@
         <v>11</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -4852,13 +4919,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E25" t="n">
+        <v>33</v>
+      </c>
+      <c r="F25" t="n">
         <v>32</v>
-      </c>
-      <c r="F25" t="n">
-        <v>31</v>
       </c>
       <c r="G25" t="n">
         <v>0.508</v>
@@ -4870,7 +4937,7 @@
         <v>39.1</v>
       </c>
       <c r="J25" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K25" t="n">
         <v>0.47</v>
@@ -4882,7 +4949,7 @@
         <v>22.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O25" t="n">
         <v>18.1</v>
@@ -4891,22 +4958,22 @@
         <v>23.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
         <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T25" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U25" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V25" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W25" t="n">
         <v>6.6</v>
@@ -4918,28 +4985,28 @@
         <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="AC25" t="n">
         <v>-0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
         <v>18</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>3</v>
@@ -4963,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>18</v>
@@ -4975,16 +5042,16 @@
         <v>24</v>
       </c>
       <c r="AS25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV25" t="n">
         <v>20</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>21</v>
       </c>
       <c r="AW25" t="n">
         <v>25</v>
@@ -4996,10 +5063,10 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" t="n">
         <v>29</v>
       </c>
       <c r="G26" t="n">
-        <v>0.554</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L26" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M26" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N26" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P26" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R26" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S26" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="T26" t="n">
-        <v>38.8</v>
+        <v>39.2</v>
       </c>
       <c r="U26" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W26" t="n">
         <v>8.199999999999999</v>
@@ -5097,25 +5164,25 @@
         <v>4.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
         <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
         <v>11</v>
@@ -5124,61 +5191,61 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
         <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU26" t="n">
         <v>17</v>
       </c>
       <c r="AV26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
         <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="n">
         <v>16</v>
@@ -5187,7 +5254,7 @@
         <v>24</v>
       </c>
       <c r="BC26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
         <v>49</v>
       </c>
       <c r="G27" t="n">
-        <v>0.234</v>
+        <v>0.246</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5240,19 +5307,19 @@
         <v>0.449</v>
       </c>
       <c r="L27" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N27" t="n">
         <v>0.339</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="P27" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="Q27" t="n">
         <v>0.734</v>
@@ -5261,7 +5328,7 @@
         <v>13.1</v>
       </c>
       <c r="S27" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T27" t="n">
         <v>43.3</v>
@@ -5270,13 +5337,13 @@
         <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W27" t="n">
         <v>7.2</v>
       </c>
       <c r="X27" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y27" t="n">
         <v>5.4</v>
@@ -5285,25 +5352,25 @@
         <v>22.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.8</v>
+        <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF27" t="n">
         <v>27</v>
       </c>
       <c r="AG27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
@@ -5327,13 +5394,13 @@
         <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5345,13 +5412,13 @@
         <v>5</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
         <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX27" t="n">
         <v>12</v>
@@ -5363,10 +5430,10 @@
         <v>26</v>
       </c>
       <c r="BA27" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.803</v>
+        <v>0.806</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5428,34 +5495,34 @@
         <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.398</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P28" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R28" t="n">
         <v>10.2</v>
       </c>
       <c r="S28" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T28" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V28" t="n">
         <v>13.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>4.6</v>
@@ -5467,16 +5534,16 @@
         <v>18.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.1</v>
+        <v>103.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,34 +5555,34 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
       </c>
       <c r="AO28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>12</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>23</v>
@@ -5524,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5533,10 +5600,10 @@
         <v>9</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" t="n">
         <v>18</v>
       </c>
       <c r="F29" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G29" t="n">
-        <v>0.277</v>
+        <v>0.273</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,16 +5665,16 @@
         <v>38.6</v>
       </c>
       <c r="J29" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L29" t="n">
         <v>4.2</v>
       </c>
       <c r="M29" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N29" t="n">
         <v>0.31</v>
@@ -5628,7 +5695,7 @@
         <v>28.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
         <v>22.2</v>
@@ -5643,7 +5710,7 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z29" t="n">
         <v>22</v>
@@ -5652,13 +5719,13 @@
         <v>20</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC29" t="n">
         <v>-5.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5676,10 +5743,10 @@
         <v>4</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL29" t="n">
         <v>29</v>
@@ -5697,28 +5764,28 @@
         <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW29" t="n">
         <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -5762,127 +5829,127 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30" t="n">
         <v>35</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.53</v>
+        <v>0.515</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L30" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M30" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O30" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="P30" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="R30" t="n">
         <v>10.8</v>
       </c>
       <c r="S30" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T30" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="U30" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W30" t="n">
         <v>7.9</v>
       </c>
       <c r="X30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.7</v>
+        <v>-1.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
       </c>
       <c r="AI30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
         <v>10</v>
       </c>
       <c r="AL30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM30" t="n">
         <v>23</v>
       </c>
-      <c r="AM30" t="n">
-        <v>22</v>
-      </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
@@ -5894,13 +5961,13 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY30" t="n">
         <v>20</v>
@@ -5909,13 +5976,13 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
@@ -5959,10 +6026,10 @@
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J31" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.44</v>
@@ -5971,58 +6038,58 @@
         <v>5.1</v>
       </c>
       <c r="M31" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O31" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P31" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="T31" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U31" t="n">
         <v>19.9</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y31" t="n">
         <v>4.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>96.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.6</v>
+        <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6043,7 +6110,7 @@
         <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6052,25 +6119,25 @@
         <v>24</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>26</v>
@@ -6079,10 +6146,10 @@
         <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY31" t="n">
         <v>17</v>
@@ -6091,7 +6158,7 @@
         <v>27</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-15-2010-11</t>
+          <t>2011-03-15</t>
         </is>
       </c>
     </row>
